--- a/dictionaries/NUTS2.xlsx
+++ b/dictionaries/NUTS2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ba23d5b7de37717/MADS/IST737/project/dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_F25DC773A252ABDACC104888C19C6AFE5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D36E162F-9804-4464-A16D-1E7BB81313EC}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_F25DC773A252ABDACC104888C19C6AFE5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70B07FC2-2B8C-40CD-A424-97769506173C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3495" yWindow="3495" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1823,10 +1823,10 @@
     <t>Kýpros</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>name</t>
+    <t>NUTS2</t>
+  </si>
+  <si>
+    <t>NUTS2_name</t>
   </si>
 </sst>
 </file>
@@ -1897,6 +1897,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2165,7 +2169,7 @@
   <dimension ref="A1:B313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
